--- a/data/trans_dic/P24_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con mareos con bastante o mucha frecuencia</t>
+          <t>Población con mareos con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,51</t>
+          <t>1,01; 11,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 6,9</t>
+          <t>1,57; 10,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,62</t>
+          <t>3,21; 9,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 14,54</t>
+          <t>5,34; 14,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 13,41</t>
+          <t>5,3; 17,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 13,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 14,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 16,19</t>
+          <t>4,92; 16,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 15,23</t>
+          <t>4,03; 13,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,69; 20,52</t>
+          <t>6,92; 14,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,11</t>
+          <t>9,59; 16,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 10,11</t>
+          <t>18,16; 32,4</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 11,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,17; 13,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 16,15</t>
+          <t>3,81; 11,43</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 9,72</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 10,77</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8,49; 13,98</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 24,09</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,78</t>
+          <t>0,63; 3,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,84</t>
+          <t>1,38; 5,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,03</t>
+          <t>2,16; 5,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,6</t>
+          <t>1,83; 4,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,94</t>
+          <t>3,44; 8,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 10,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,22</t>
+          <t>2,51; 6,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,19</t>
+          <t>6,19; 13,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,14; 17,6</t>
+          <t>7,75; 12,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,3</t>
+          <t>7,58; 13,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,5</t>
+          <t>11,68; 18,99</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 7,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,08</t>
+          <t>1,85; 4,66</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 8,54</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 8,43</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 8,23</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>8,52; 12,94</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>3,48%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,27%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>7,3%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>2,94%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,61</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,87</t>
+          <t>1,27; 10,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,03</t>
+          <t>1,44; 8,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,64</t>
+          <t>0,96; 3,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,4</t>
+          <t>3,49; 14,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,57</t>
+          <t>1,34; 5,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,25</t>
+          <t>1,28; 4,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,85</t>
+          <t>2,16; 5,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,99</t>
+          <t>3,84; 7,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,15</t>
+          <t>5,61; 11,66</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,82</t>
+          <t>1,18; 4,08</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 6,38</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 5,92</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 5,35</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>5,51; 11,39</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,35%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>7,0%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>8,79%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>13,03%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4,27%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>4,86%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>6,07%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>9,61%</t>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,22</t>
+          <t>1,43; 3,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,96</t>
+          <t>0,72; 2,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,92</t>
+          <t>1,66; 5,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,44</t>
+          <t>1,96; 5,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 8,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 9,87</t>
+          <t>5,68; 9,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 10,51</t>
+          <t>5,84; 10,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 15,5</t>
+          <t>8,26; 15,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 5,91</t>
+          <t>9,95; 17,66</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 7,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>8,26; 11,06</t>
+          <t>3,86; 5,89</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 6,5</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 9,03</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 10,49</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14,69%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 3,09</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 4,11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 5,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 5,3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 8,18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 7,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 8,83</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 9,94</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 11,05</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,56; 17,08</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 5,05</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 5,95</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 7,13</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 7,56</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 11,99</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con mareos con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8584</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13948</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31871</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>59886</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>44720</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25419</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31857</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>62658</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>113541</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>157509</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>34003</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>45805</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>94529</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>173427</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>202229</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2281; 26034</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5330; 34340</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17014; 51898</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>38870; 103168</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23406; 77359</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12883; 42177</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16984; 56413</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>43640; 88411</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>86178; 145506</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>116225; 207385</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18583; 55814</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>26747; 73974</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>69894; 125028</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>138156; 227390</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>149998; 260558</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11285</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26851</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>43068</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48905</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>62143</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29636</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>88589</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>119555</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>146747</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>164546</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>40922</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>115440</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>162623</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>195653</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>226690</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4115; 25128</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12842; 46844</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25998; 65409</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>29606; 77878</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>36664; 91541</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17952; 49292</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>61943; 137794</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>95279; 156190</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>114114; 203460</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>126585; 205705</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>25223; 63594</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>83204; 165025</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>130556; 205213</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>153197; 257180</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>182951; 277887</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6851</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25389</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27807</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21772</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>60552</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16116</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20860</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34307</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>64436</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>75526</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>22967</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>46249</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>62114</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>86208</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>136077</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16354</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9086; 71882</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12163; 68660</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10417; 39174</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29011; 124507</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7143; 31531</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9883; 37684</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20259; 53572</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>44627; 91961</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50353; 104625</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11611; 40252</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>24872; 94681</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>41201; 105749</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>61056; 120464</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>95162; 196795</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>50143</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>21709</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26275</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>38463</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>153515</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>115360</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>86319</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>132036</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>203658</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>137069</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>112594</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>170498</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>30199; 75129</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10412; 43471</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14102; 44918</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21482; 65387</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>118649; 191715</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>81794; 151286</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>62758; 114966</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>98013; 173919</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>162085; 247518</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>105214; 185729</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>83110; 145254</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>130585; 218136</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>76864</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>87897</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>129021</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>130563</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>205878</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>224686</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>256666</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>302840</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>324724</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>529617</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>301551</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>344563</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>431861</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>455287</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>735495</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>50906; 106580</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>57941; 141625</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>94394; 171429</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>97826; 182230</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>157366; 280685</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>187428; 275155</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>204286; 317243</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>255995; 353982</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>276776; 394131</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>452932; 615763</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>248332; 356071</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>288560; 418141</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>372385; 498207</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>384036; 529370</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>642060; 843885</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
